--- a/outlines/INFO 3608.xlsx
+++ b/outlines/INFO 3608.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25027"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07E866A2-A85C-4006-9836-7AED283BC526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13433E1E-C740-48C4-AF53-5311E84CD7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1117,7 +1117,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1287,9 +1287,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2741,10 +2738,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2970,10 +2967,10 @@
       <c r="C17" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="71" t="b">
+      <c r="D17" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="E17" s="68" t="s">
+      <c r="E17" s="67" t="s">
         <v>59</v>
       </c>
       <c r="F17" s="13"/>
@@ -2985,9 +2982,9 @@
       <c r="B18" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6">
@@ -2997,9 +2994,9 @@
       <c r="B19" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
@@ -3009,9 +3006,9 @@
       <c r="B20" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6">
@@ -3021,9 +3018,9 @@
       <c r="B21" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
       <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6">
@@ -3033,9 +3030,9 @@
       <c r="B22" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6">
@@ -3045,9 +3042,9 @@
       <c r="B23" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
       <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6">
@@ -3057,9 +3054,9 @@
       <c r="B24" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
       <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6" ht="45">
@@ -3069,9 +3066,9 @@
       <c r="B25" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
       <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" ht="45">
@@ -3081,9 +3078,9 @@
       <c r="B26" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
       <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6" ht="30">
@@ -3093,9 +3090,9 @@
       <c r="B27" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
       <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6" ht="45">
@@ -3105,9 +3102,9 @@
       <c r="B28" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
       <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6">
@@ -3119,217 +3116,206 @@
       </c>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" ht="409.6">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="19"/>
+      <c r="B30" s="56"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" ht="409.6">
+      <c r="A31" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B31" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C31" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="13" t="b">
+      <c r="D31" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E31" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A31" s="61" t="s">
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A32" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-    </row>
-    <row r="32" spans="1:6" ht="28.5">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="25" t="s">
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+    </row>
+    <row r="33" spans="1:6" ht="28.5">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="69" t="b">
+      <c r="D33" s="68" t="b">
         <v>1</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E33" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1">
-      <c r="A33" s="26"/>
-      <c r="B33" s="27" t="s">
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1">
+      <c r="A34" s="26"/>
+      <c r="B34" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C34" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="70"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="12"/>
-    </row>
-    <row r="34" spans="1:6" ht="95.25" customHeight="1">
-      <c r="A34" s="26"/>
-      <c r="B34" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="70"/>
-      <c r="E34" s="24" t="s">
-        <v>82</v>
-      </c>
+      <c r="D34" s="69"/>
+      <c r="E34" s="28"/>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" ht="30">
+    <row r="35" spans="1:6" ht="95.25" customHeight="1">
       <c r="A35" s="26"/>
       <c r="B35" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="70"/>
+        <v>81</v>
+      </c>
+      <c r="D35" s="69"/>
       <c r="E35" s="24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:6" ht="105">
+    <row r="36" spans="1:6" ht="30">
       <c r="A36" s="26"/>
       <c r="B36" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="69"/>
+      <c r="E36" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="1:6" ht="105">
+      <c r="A37" s="26"/>
+      <c r="B37" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C37" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="70"/>
-      <c r="E36" s="24" t="s">
+      <c r="D37" s="69"/>
+      <c r="E37" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="1:6" ht="112.5" customHeight="1">
-      <c r="A37" s="26"/>
-      <c r="B37" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="70"/>
-      <c r="E37" s="24" t="s">
-        <v>91</v>
-      </c>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:6" ht="45">
+    <row r="38" spans="1:6" ht="112.5" customHeight="1">
       <c r="A38" s="26"/>
       <c r="B38" s="54" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="70"/>
+        <v>90</v>
+      </c>
+      <c r="D38" s="69"/>
       <c r="E38" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F38" s="12"/>
     </row>
     <row r="39" spans="1:6" ht="45">
       <c r="A39" s="26"/>
       <c r="B39" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="69"/>
+      <c r="E39" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" spans="1:6" ht="45">
+      <c r="A40" s="26"/>
+      <c r="B40" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C40" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="70"/>
-      <c r="E39" s="24" t="s">
+      <c r="D40" s="69"/>
+      <c r="E40" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="12"/>
-    </row>
-    <row r="40" spans="1:6" ht="75">
-      <c r="A40" s="26"/>
-      <c r="B40" s="23" t="s">
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" spans="1:6" ht="75">
+      <c r="A41" s="26"/>
+      <c r="B41" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C41" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="70"/>
-      <c r="E40" s="24" t="s">
+      <c r="D41" s="69"/>
+      <c r="E41" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="F40" s="12"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A41" s="61" t="s">
+      <c r="F41" s="12"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A42" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1">
-      <c r="A42" s="26"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="12"/>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1">
       <c r="A43" s="26"/>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="26"/>
+      <c r="B44" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C44" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D44" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E44" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="F43" s="12"/>
-    </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1">
-      <c r="A44" s="26"/>
-      <c r="B44" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="31">
-        <v>13</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>107</v>
-      </c>
       <c r="F44" s="12"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" ht="15" customHeight="1">
       <c r="A45" s="26"/>
       <c r="B45" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C45" s="31">
         <v>13</v>
       </c>
-      <c r="D45" s="33" t="s">
+      <c r="D45" s="31" t="s">
         <v>107</v>
       </c>
       <c r="E45" s="32" t="s">
@@ -3337,139 +3323,137 @@
       </c>
       <c r="F45" s="12"/>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1">
+    <row r="46" spans="1:6">
       <c r="A46" s="26"/>
-      <c r="B46" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="C46" s="35">
+      <c r="B46" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="31">
         <v>13</v>
       </c>
-      <c r="D46" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="E46" s="36" t="s">
-        <v>110</v>
+      <c r="D46" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>107</v>
       </c>
       <c r="F46" s="12"/>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1">
       <c r="A47" s="26"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="14"/>
+      <c r="B47" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="35">
+        <v>13</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" s="36" t="s">
+        <v>110</v>
+      </c>
       <c r="F47" s="12"/>
     </row>
-    <row r="48" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A48" s="10" t="s">
+    <row r="48" spans="1:6" ht="15" customHeight="1">
+      <c r="A48" s="26"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A49" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="13"/>
-    </row>
-    <row r="49" spans="1:6" ht="90">
-      <c r="A49" s="26"/>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="13"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="1:6" ht="90">
+      <c r="A50" s="26"/>
+      <c r="B50" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C50" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="13" t="b">
+      <c r="D50" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="E49" s="24" t="s">
+      <c r="E50" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="F49" s="12"/>
-    </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1">
-      <c r="A50" s="26"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="14"/>
       <c r="F50" s="12"/>
     </row>
-    <row r="51" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A51" s="61" t="s">
+    <row r="51" spans="1:6" ht="15" customHeight="1">
+      <c r="A51" s="26"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="12"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A52" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="B51" s="72"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="25" t="s">
+      <c r="B52" s="71"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B53" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C53" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D53" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E52" s="25" t="s">
+      <c r="E53" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F52" s="13" t="b">
+      <c r="F53" s="13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A53" s="39" t="s">
+    <row r="54" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A54" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="B53" s="39" t="s">
+      <c r="B54" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="C53" s="40" t="s">
+      <c r="C54" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="D53" s="41" t="s">
+      <c r="D54" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="E53" s="40" t="s">
+      <c r="E54" s="40" t="s">
         <v>124</v>
-      </c>
-      <c r="F53" s="12"/>
-    </row>
-    <row r="54" spans="1:6" ht="30">
-      <c r="A54" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D54" s="23">
-        <v>10</v>
-      </c>
-      <c r="E54" s="43" t="s">
-        <v>128</v>
       </c>
       <c r="F54" s="12"/>
     </row>
     <row r="55" spans="1:6" ht="30">
       <c r="A55" s="29" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D55" s="23">
         <v>10</v>
@@ -3479,66 +3463,76 @@
       </c>
       <c r="F55" s="12"/>
     </row>
-    <row r="56" spans="1:6" ht="60">
+    <row r="56" spans="1:6" ht="30">
       <c r="A56" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="23">
+        <v>10</v>
+      </c>
+      <c r="E56" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="F56" s="12"/>
+    </row>
+    <row r="57" spans="1:6" ht="60">
+      <c r="A57" s="29" t="s">
         <v>132</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="D56" s="23">
-        <v>30</v>
-      </c>
-      <c r="E56" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="F56" s="12"/>
-    </row>
-    <row r="57" spans="1:6" ht="120">
-      <c r="A57" s="29" t="s">
-        <v>136</v>
       </c>
       <c r="B57" s="23" t="s">
         <v>133</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D57" s="23">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E57" s="43" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F57" s="12"/>
     </row>
-    <row r="58" spans="1:6" ht="163.5" customHeight="1">
+    <row r="58" spans="1:6" ht="120">
       <c r="A58" s="29" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B58" s="23" t="s">
         <v>133</v>
       </c>
       <c r="C58" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" s="23">
+        <v>20</v>
+      </c>
+      <c r="E58" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="F58" s="12"/>
+    </row>
+    <row r="59" spans="1:6" ht="163.5" customHeight="1">
+      <c r="A59" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="D58" s="23">
+      <c r="D59" s="23">
         <v>30</v>
       </c>
-      <c r="E58" s="43" t="s">
+      <c r="E59" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="F58" s="12"/>
-    </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1">
-      <c r="A59" s="31"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="43"/>
       <c r="F59" s="12"/>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1">
@@ -3573,315 +3567,321 @@
       <c r="E63" s="43"/>
       <c r="F63" s="12"/>
     </row>
-    <row r="64" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A64" s="26"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="14"/>
+    <row r="64" spans="1:6" ht="15" customHeight="1">
+      <c r="A64" s="31"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="43"/>
       <c r="F64" s="12"/>
     </row>
-    <row r="65" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A65" s="10" t="s">
+    <row r="65" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A65" s="26"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="12"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A66" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="13"/>
-    </row>
-    <row r="66" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A66" s="44" t="s">
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="13"/>
+    </row>
+    <row r="67" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A67" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="B66" s="65"/>
-      <c r="C66" s="63" t="s">
+      <c r="B67" s="65"/>
+      <c r="C67" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="D66" s="71" t="b">
+      <c r="D67" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="E66" s="64" t="s">
+      <c r="E67" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="F66" s="12"/>
-    </row>
-    <row r="67" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A67" s="45" t="s">
+      <c r="F67" s="12"/>
+    </row>
+    <row r="68" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A68" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="B67" s="66"/>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="12"/>
-    </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1">
-      <c r="A68" s="45"/>
       <c r="B68" s="66"/>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="71"/>
       <c r="F68" s="12"/>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1">
-      <c r="A69" s="47"/>
-      <c r="B69" s="67"/>
-      <c r="C69" s="72"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
+      <c r="A69" s="45"/>
       <c r="F69" s="12"/>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1">
       <c r="A70" s="45"/>
       <c r="F70" s="12"/>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1">
-      <c r="A71" s="45"/>
+    <row r="71" spans="1:6" ht="18" customHeight="1">
+      <c r="A71" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" s="62"/>
       <c r="F71" s="12"/>
     </row>
     <row r="72" spans="1:6" ht="18" customHeight="1">
-      <c r="A72" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="C72" s="63" t="s">
+      <c r="A72" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" s="46"/>
+      <c r="C72" s="71"/>
+      <c r="D72" s="71"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="12"/>
+    </row>
+    <row r="73" spans="1:6" ht="15" customHeight="1">
+      <c r="A73" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="46"/>
+      <c r="C73" s="71"/>
+      <c r="D73" s="71"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="12"/>
+    </row>
+    <row r="74" spans="1:6" ht="15" customHeight="1">
+      <c r="A74" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="48"/>
+      <c r="C74" s="71"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="12"/>
+    </row>
+    <row r="75" spans="1:6" ht="15" customHeight="1">
+      <c r="A75" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="71" t="b">
+      <c r="D75" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="E72" s="62"/>
-      <c r="F72" s="12"/>
-    </row>
-    <row r="73" spans="1:6" ht="18" customHeight="1">
-      <c r="A73" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="B73" s="46"/>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="12"/>
-    </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1">
-      <c r="A74" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="B74" s="46"/>
-      <c r="C74" s="72"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="12"/>
-    </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1">
-      <c r="A75" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="B75" s="48"/>
-      <c r="C75" s="72"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="72"/>
+      <c r="E75" s="62"/>
       <c r="F75" s="12"/>
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1">
-      <c r="A76" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="C76" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="D76" s="71" t="b">
+      <c r="A76" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="50"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="12"/>
+    </row>
+    <row r="77" spans="1:6" ht="15" customHeight="1">
+      <c r="A77" s="47"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="71"/>
+      <c r="E77" s="71"/>
+      <c r="F77" s="12"/>
+    </row>
+    <row r="78" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A78" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="D78" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="E76" s="62"/>
-      <c r="F76" s="12"/>
-    </row>
-    <row r="77" spans="1:6" ht="15" customHeight="1">
-      <c r="A77" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="B77" s="50"/>
-      <c r="C77" s="72"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="12"/>
-    </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1">
-      <c r="A78" s="47"/>
-      <c r="B78" s="48"/>
-      <c r="C78" s="72"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="72"/>
-      <c r="F78" s="12"/>
+      <c r="E78" s="71"/>
+      <c r="F78" s="13"/>
     </row>
     <row r="79" spans="1:6" ht="14.25" customHeight="1">
       <c r="A79" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C79" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="D79" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E79" s="72"/>
+        <v>154</v>
+      </c>
+      <c r="B79" s="13"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="38"/>
       <c r="F79" s="13"/>
     </row>
-    <row r="80" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A80" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B80" s="13"/>
+    <row r="80" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A80" s="26"/>
+      <c r="B80" s="12"/>
       <c r="C80" s="12"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="13"/>
-    </row>
-    <row r="81" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A81" s="26"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="12"/>
+    </row>
+    <row r="81" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A81" s="10" t="s">
+        <v>155</v>
+      </c>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
       <c r="E81" s="14"/>
       <c r="F81" s="12"/>
     </row>
-    <row r="82" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A82" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="12"/>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="10"/>
-      <c r="B83" s="25" t="s">
+    <row r="82" spans="1:6">
+      <c r="A82" s="10"/>
+      <c r="B82" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C82" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="D83" s="25" t="s">
+      <c r="D82" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="E83" s="25" t="s">
+      <c r="E82" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="F83" s="25" t="s">
+      <c r="F82" s="25" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A84" s="39" t="s">
+    <row r="83" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A83" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="B84" s="39" t="s">
+      <c r="B83" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="C84" s="39" t="s">
+      <c r="C83" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="D84" s="39" t="s">
+      <c r="D83" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="E84" s="39" t="s">
+      <c r="E83" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="F84" s="39" t="s">
+      <c r="F83" s="39" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="30">
+    <row r="84" spans="1:6" ht="30">
+      <c r="A84" s="31">
+        <v>1</v>
+      </c>
+      <c r="B84" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D84" s="52"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="52"/>
+    </row>
+    <row r="85" spans="1:6" ht="135">
       <c r="A85" s="31">
-        <v>1</v>
-      </c>
-      <c r="B85" s="29" t="s">
-        <v>167</v>
+        <v>2</v>
+      </c>
+      <c r="B85" s="55" t="s">
+        <v>169</v>
       </c>
       <c r="C85" s="58" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D85" s="52"/>
-      <c r="E85" s="53"/>
+      <c r="E85" s="29" t="s">
+        <v>171</v>
+      </c>
       <c r="F85" s="52"/>
     </row>
-    <row r="86" spans="1:6" ht="135">
+    <row r="86" spans="1:6" ht="30">
       <c r="A86" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B86" s="55" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C86" s="58" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D86" s="52"/>
-      <c r="E86" s="29" t="s">
-        <v>171</v>
-      </c>
+      <c r="E86" s="53"/>
       <c r="F86" s="52"/>
     </row>
-    <row r="87" spans="1:6" ht="30">
+    <row r="87" spans="1:6" ht="75">
       <c r="A87" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B87" s="55" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C87" s="58" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D87" s="52"/>
-      <c r="E87" s="53"/>
+      <c r="E87" s="29" t="s">
+        <v>176</v>
+      </c>
       <c r="F87" s="52"/>
     </row>
-    <row r="88" spans="1:6" ht="75">
+    <row r="88" spans="1:6" ht="90">
       <c r="A88" s="31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B88" s="55" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C88" s="58" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D88" s="52"/>
       <c r="E88" s="29" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F88" s="52"/>
     </row>
-    <row r="89" spans="1:6" ht="90">
+    <row r="89" spans="1:6" ht="30">
       <c r="A89" s="31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B89" s="55" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C89" s="58" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D89" s="52"/>
-      <c r="E89" s="29" t="s">
-        <v>179</v>
-      </c>
+      <c r="E89" s="53"/>
       <c r="F89" s="52"/>
     </row>
     <row r="90" spans="1:6" ht="30">
       <c r="A90" s="31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B90" s="55" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C90" s="58" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D90" s="52"/>
       <c r="E90" s="53"/>
@@ -3889,13 +3889,13 @@
     </row>
     <row r="91" spans="1:6" ht="30">
       <c r="A91" s="31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B91" s="55" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C91" s="58" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D91" s="52"/>
       <c r="E91" s="53"/>
@@ -3903,125 +3903,111 @@
     </row>
     <row r="92" spans="1:6" ht="30">
       <c r="A92" s="31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B92" s="55" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C92" s="58" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D92" s="52"/>
-      <c r="E92" s="53"/>
+      <c r="E92" s="59" t="s">
+        <v>188</v>
+      </c>
       <c r="F92" s="52"/>
     </row>
     <row r="93" spans="1:6" ht="30">
       <c r="A93" s="31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B93" s="55" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C93" s="58" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D93" s="52"/>
-      <c r="E93" s="59" t="s">
-        <v>188</v>
-      </c>
+      <c r="E93" s="53"/>
       <c r="F93" s="52"/>
     </row>
     <row r="94" spans="1:6" ht="30">
       <c r="A94" s="31">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B94" s="55" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C94" s="58" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D94" s="52"/>
-      <c r="E94" s="53"/>
+      <c r="E94" s="29" t="s">
+        <v>193</v>
+      </c>
       <c r="F94" s="52"/>
     </row>
     <row r="95" spans="1:6" ht="30">
       <c r="A95" s="31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B95" s="55" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C95" s="58" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D95" s="52"/>
-      <c r="E95" s="29" t="s">
-        <v>193</v>
+      <c r="E95" s="60" t="s">
+        <v>196</v>
       </c>
       <c r="F95" s="52"/>
     </row>
-    <row r="96" spans="1:6" ht="30">
+    <row r="96" spans="1:6" ht="15" customHeight="1">
       <c r="A96" s="31">
-        <v>12</v>
-      </c>
-      <c r="B96" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="C96" s="58" t="s">
-        <v>195</v>
-      </c>
-      <c r="D96" s="52"/>
-      <c r="E96" s="60" t="s">
-        <v>196</v>
-      </c>
-      <c r="F96" s="52"/>
-    </row>
-    <row r="97" spans="1:6" ht="15" customHeight="1">
-      <c r="A97" s="31">
         <v>13</v>
       </c>
-      <c r="B97" s="23" t="s">
+      <c r="B96" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="C97" s="42"/>
-      <c r="D97" s="42"/>
-      <c r="E97" s="43"/>
-      <c r="F97" s="42"/>
-    </row>
-    <row r="98" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A98" s="26"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="12"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="43"/>
+      <c r="F96" s="42"/>
+    </row>
+    <row r="97" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A97" s="26"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="C17:C28"/>
     <mergeCell ref="D17:D28"/>
     <mergeCell ref="E17:E28"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="D32:D40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="E76:E79"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="D33:D41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="B67:B68"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E14" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="E16" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="A73" r:id="rId3" xr:uid="{4DB772C4-8924-4110-ADB2-D977FC56B5C9}"/>
-    <hyperlink ref="A75" r:id="rId4" xr:uid="{2C10D4F7-681F-4B90-9E71-6C496080B0C4}"/>
+    <hyperlink ref="A72" r:id="rId3" xr:uid="{4DB772C4-8924-4110-ADB2-D977FC56B5C9}"/>
+    <hyperlink ref="A74" r:id="rId4" xr:uid="{2C10D4F7-681F-4B90-9E71-6C496080B0C4}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
